--- a/Team-Data/2013-14/1-27-2013-14.xlsx
+++ b/Team-Data/2013-14/1-27-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.523</v>
+        <v>0.535</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L2" t="n">
         <v>9.300000000000001</v>
@@ -696,22 +763,22 @@
         <v>25.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T2" t="n">
         <v>40.7</v>
@@ -726,34 +793,34 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
         <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>8</v>
@@ -762,13 +829,13 @@
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
@@ -780,16 +847,16 @@
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -807,16 +874,16 @@
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
@@ -947,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -983,7 +1050,7 @@
         <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>
@@ -998,7 +1065,7 @@
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.465</v>
+        <v>0.476</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
         <v>7.9</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
         <v>18.9</v>
@@ -1069,25 +1136,25 @@
         <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R4" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S4" t="n">
         <v>30.4</v>
       </c>
       <c r="T4" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U4" t="n">
         <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
         <v>4.1</v>
@@ -1099,22 +1166,22 @@
         <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC4" t="n">
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1129,10 +1196,10 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL4" t="n">
         <v>15</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1153,13 +1220,13 @@
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
@@ -1174,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1359,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
         <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H6" t="n">
         <v>48.9</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N6" t="n">
         <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R6" t="n">
         <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T6" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U6" t="n">
         <v>22.4</v>
@@ -1451,37 +1518,37 @@
         <v>15.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
         <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
         <v>13</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1502,13 +1569,13 @@
         <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
@@ -1529,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1666,7 +1733,7 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1678,7 +1745,7 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
@@ -1687,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1711,19 +1778,19 @@
         <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
         <v>8</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
         <v>13</v>
       </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2036,13 +2103,13 @@
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2072,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,13 +2673,13 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
         <v>25</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2767,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2782,19 +2849,19 @@
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -2850,43 +2917,43 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.681</v>
+        <v>0.674</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.469</v>
+        <v>0.467</v>
       </c>
       <c r="L14" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="N14" t="n">
-        <v>0.348</v>
+        <v>0.344</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="Q14" t="n">
         <v>0.731</v>
@@ -2895,43 +2962,43 @@
         <v>10.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y14" t="n">
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.2</v>
+        <v>106</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2952,13 +3019,13 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2973,16 +3040,16 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW14" t="n">
         <v>10</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>24</v>
@@ -3134,7 +3201,7 @@
         <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3149,7 +3216,7 @@
         <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
@@ -3170,7 +3237,7 @@
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3486,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>5</v>
@@ -3510,10 +3577,10 @@
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,13 +3592,13 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV17" t="n">
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
@@ -3546,10 +3613,10 @@
         <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>0.182</v>
+        <v>0.186</v>
       </c>
       <c r="H18" t="n">
         <v>48.8</v>
@@ -3596,40 +3663,40 @@
         <v>34.8</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
         <v>20.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
         <v>14.5</v>
       </c>
       <c r="P18" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="R18" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T18" t="n">
         <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V18" t="n">
         <v>15.8</v>
@@ -3638,25 +3705,25 @@
         <v>7.1</v>
       </c>
       <c r="X18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,25 +3735,25 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,10 +3762,10 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3707,25 +3774,25 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>27</v>
       </c>
       <c r="AW18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
         <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J19" t="n">
-        <v>88.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O19" t="n">
         <v>21.1</v>
       </c>
       <c r="P19" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.785</v>
+        <v>0.783</v>
       </c>
       <c r="R19" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="S19" t="n">
         <v>32.6</v>
       </c>
       <c r="T19" t="n">
-        <v>45.7</v>
+        <v>45.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V19" t="n">
         <v>13.8</v>
@@ -3820,37 +3887,37 @@
         <v>9.1</v>
       </c>
       <c r="X19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Y19" t="n">
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.5</v>
+        <v>106.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>8</v>
@@ -3859,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM19" t="n">
         <v>12</v>
@@ -3877,22 +3944,22 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>4</v>
       </c>
       <c r="AU19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV19" t="n">
         <v>6</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>5</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4035,13 +4102,13 @@
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4053,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
         <v>13</v>
@@ -4068,16 +4135,16 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4086,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4214,7 +4281,7 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
@@ -4229,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN21" t="n">
         <v>15</v>
@@ -4268,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.783</v>
+        <v>0.778</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
         <v>82.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="O22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P22" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.804</v>
+        <v>0.806</v>
       </c>
       <c r="R22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S22" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="T22" t="n">
-        <v>46.1</v>
+        <v>46.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>8.1</v>
@@ -4369,22 +4436,22 @@
         <v>6.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4408,13 +4475,13 @@
         <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
@@ -4426,10 +4493,10 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -4450,10 +4517,10 @@
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -4590,25 +4657,25 @@
         <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>15</v>
       </c>
       <c r="AR23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
@@ -4629,7 +4696,7 @@
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
         <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.311</v>
+        <v>0.318</v>
       </c>
       <c r="H24" t="n">
         <v>48.8</v>
@@ -4688,67 +4755,67 @@
         <v>39</v>
       </c>
       <c r="J24" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.44</v>
       </c>
       <c r="L24" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M24" t="n">
         <v>21.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.317</v>
+        <v>0.315</v>
       </c>
       <c r="O24" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P24" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.715</v>
+        <v>0.708</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
       <c r="T24" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="U24" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V24" t="n">
         <v>17.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.6</v>
+        <v>-8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
         <v>7</v>
@@ -4781,22 +4848,22 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>10</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4805,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -4852,88 +4919,88 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.591</v>
+        <v>0.581</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J25" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="P25" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R25" t="n">
         <v>11.8</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
         <v>43.4</v>
       </c>
       <c r="U25" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W25" t="n">
         <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.5</v>
+        <v>104.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4942,16 +5009,16 @@
         <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4963,13 +5030,13 @@
         <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4984,10 +5051,10 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5002,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" t="n">
-        <v>0.341</v>
+        <v>0.349</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J27" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
         <v>7</v>
@@ -5246,7 +5313,7 @@
         <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O27" t="n">
         <v>19.9</v>
@@ -5258,22 +5325,22 @@
         <v>0.768</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5282,40 +5349,40 @@
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB27" t="n">
         <v>102.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>22</v>
@@ -5324,7 +5391,7 @@
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
@@ -5336,7 +5403,7 @@
         <v>11</v>
       </c>
       <c r="AR27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AS27" t="n">
         <v>16</v>
@@ -5348,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>15</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5366,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
         <v>18</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
         <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.523</v>
+        <v>0.512</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
@@ -5598,10 +5665,10 @@
         <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L29" t="n">
         <v>8.300000000000001</v>
@@ -5610,16 +5677,16 @@
         <v>22.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O29" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P29" t="n">
         <v>24.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R29" t="n">
         <v>12</v>
@@ -5631,10 +5698,10 @@
         <v>43.4</v>
       </c>
       <c r="U29" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V29" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
@@ -5643,37 +5710,37 @@
         <v>4.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC29" t="n">
         <v>2.3</v>
       </c>
       <c r="AD29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
         <v>13</v>
       </c>
-      <c r="AE29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12</v>
-      </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
@@ -5700,13 +5767,13 @@
         <v>7</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="n">
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
         <v>21</v>
@@ -5718,13 +5785,13 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.356</v>
+        <v>0.341</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5780,10 +5847,10 @@
         <v>36</v>
       </c>
       <c r="J30" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
@@ -5792,31 +5859,31 @@
         <v>18.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O30" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="P30" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.758</v>
       </c>
       <c r="R30" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T30" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="U30" t="n">
         <v>20.2</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>7</v>
@@ -5828,34 +5895,34 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ30" t="n">
         <v>24</v>
@@ -5873,19 +5940,19 @@
         <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5894,10 +5961,10 @@
         <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
         <v>14</v>
@@ -5906,13 +5973,13 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -6040,10 +6107,10 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>16</v>
@@ -6070,7 +6137,7 @@
         <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
@@ -6079,10 +6146,10 @@
         <v>18</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-27-2013-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
     </row>
